--- a/GVTC/keyspecies.xlsx
+++ b/GVTC/keyspecies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GVTC\startbootstrap-sb-admin-gh-pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evet\Documents\GitHub\GVTC_Webmaps\GVTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A113456-66CE-4270-959B-E1A1F1F3F71C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6422942-B891-4671-90EE-1BF90F86D8E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{55F120E2-28E6-427E-B449-91B098924D2E}"/>
   </bookViews>
@@ -35,10 +35,10 @@
     <t>Hippos</t>
   </si>
   <si>
-    <t>Golliras</t>
+    <t>Elephants</t>
   </si>
   <si>
-    <t>Elephants</t>
+    <t>Gorillas</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>8000</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>13000</v>

--- a/GVTC/keyspecies.xlsx
+++ b/GVTC/keyspecies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evet\Documents\GitHub\GVTC_Webmaps\GVTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GVTC\startbootstrap-sb-admin-gh-pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6422942-B891-4671-90EE-1BF90F86D8E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A113456-66CE-4270-959B-E1A1F1F3F71C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{55F120E2-28E6-427E-B449-91B098924D2E}"/>
   </bookViews>
@@ -35,10 +35,10 @@
     <t>Hippos</t>
   </si>
   <si>
-    <t>Elephants</t>
+    <t>Golliras</t>
   </si>
   <si>
-    <t>Gorillas</t>
+    <t>Elephants</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>8000</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>13000</v>
